--- a/loaded_influencer_data/tash.smith.ugc/tash.smith.ugc_video.xlsx
+++ b/loaded_influencer_data/tash.smith.ugc/tash.smith.ugc_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,423 +506,423 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@tash.smith.ugc/video/7487517824684936455</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>249</v>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Toning made easy with @Hey Bud Skincare 's Exfoliating Toner ✨️🌿 It brightens, smooths &amp; refines with Lime Pearl, AHAs &amp; Agarikon Mushroom - because glowing skin starts with the right formula! 💚 My skin feels so hydrated, calm &amp; radiant after! Just how I like it! 🤩</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6.024096385542169</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5.220883534136546</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.8032128514056224</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.4016064257028112</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@tash.smith.ugc/video/7481472371577081096</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>386</v>
-      </c>
-      <c r="C2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="B3" t="n">
+        <v>410</v>
+      </c>
+      <c r="C3" t="n">
+        <v>27</v>
+      </c>
+      <c r="D3" t="n">
         <v>7</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
         <v>3</v>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Skincare that loves your skin and the planet—perfect for this pregnant mama! 🤰💚✨ @WOOHOO BODY ’s combination skincare routine keeps my skin balanced, hydrated, and fresh with powerful, plant-based ingredients. 🌿💦 No nasties, just gentle, effective, and eco-friendly goodness! 🌏♻️</t>
         </is>
       </c>
-      <c r="H2" t="n">
-        <v>8.290155440414509</v>
-      </c>
-      <c r="I2" t="n">
-        <v>6.476683937823833</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1.813471502590673</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.7772020725388601</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="H3" t="n">
+        <v>8.292682926829269</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6.585365853658537</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.707317073170732</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.7317073170731708</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="inlineStr">
         <is>
           <t>2025-03-14</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@tash.smith.ugc/video/7472913425258253575</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B4" t="n">
         <v>43</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>15</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>6</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
         <v>1</v>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>we love a good @Bunnings trip 🤭
 #toddlermum #boymum #goldcoastaustralia #mumlife</t>
         </is>
       </c>
-      <c r="H3" t="n">
+      <c r="H4" t="n">
         <v>48.83720930232558</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I4" t="n">
         <v>34.88372093023256</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>13.95348837209302</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L4" t="n">
         <v>2.325581395348837</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="inlineStr">
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="inlineStr">
         <is>
           <t>2025-02-19</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@tash.smith.ugc/video/7470784669705964818</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>428</v>
-      </c>
-      <c r="C4" t="n">
+      <c r="B5" t="n">
+        <v>433</v>
+      </c>
+      <c r="C5" t="n">
         <v>31</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>12</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>3</v>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>@myprotein providing the goods! Impact whey is probably one of the tastiest protein powders I've ever had! 🤌</t>
         </is>
       </c>
-      <c r="H4" t="n">
-        <v>10.04672897196262</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7.242990654205607</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.803738317757009</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.7009345794392523</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="inlineStr">
+      <c r="H5" t="n">
+        <v>9.930715935334874</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7.159353348729793</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.771362586605081</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.6928406466512702</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
         <is>
           <t>2025-02-13</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@tash.smith.ugc/video/7470413978733169928</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>358</v>
-      </c>
-      <c r="C5" t="n">
-        <v>39</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="B6" t="n">
+        <v>362</v>
+      </c>
+      <c r="C6" t="n">
+        <v>40</v>
+      </c>
+      <c r="D6" t="n">
         <v>4</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
         <v>6</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>@Lvlup_supps keeping me hydrated 🍉
 #ugccreator #ugccommunity #contentcreator #ugcvideo</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>12.01117318435754</v>
-      </c>
-      <c r="I5" t="n">
-        <v>10.89385474860335</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1.11731843575419</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.675977653631285</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
+      <c r="H6" t="n">
+        <v>12.15469613259669</v>
+      </c>
+      <c r="I6" t="n">
+        <v>11.04972375690608</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.104972375690608</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.657458563535912</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t>2025-02-12</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@tash.smith.ugc/video/7470036087063203080</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>393</v>
-      </c>
-      <c r="C6" t="n">
+      <c r="B7" t="n">
+        <v>395</v>
+      </c>
+      <c r="C7" t="n">
         <v>24</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>7</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
         <v>1</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Mums, we found the ultimate snack hack! ✨ No added sugar, mess-free, and kid-approved—Tamar Valley Kids Yogurt is a game-changer for busy days! 🥄💛</t>
         </is>
       </c>
-      <c r="H6" t="n">
-        <v>7.888040712468193</v>
-      </c>
-      <c r="I6" t="n">
-        <v>6.106870229007633</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1.78117048346056</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.2544529262086514</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
+      <c r="H7" t="n">
+        <v>7.848101265822785</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6.075949367088607</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.772151898734177</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.2531645569620253</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
         <is>
           <t>2025-02-11</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@tash.smith.ugc/video/7468604871168511240</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B8" t="n">
         <v>635</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>77</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>13</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>9</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>UGC example for @yoraskinscience
 Defence Face Serum ✨️
 #ugccontentcreator #ugcaustralia #ugcbeauty</t>
         </is>
       </c>
-      <c r="H7" t="n">
+      <c r="H8" t="n">
         <v>14.17322834645669</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I8" t="n">
         <v>12.1259842519685</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
         <v>2.047244094488189</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L8" t="n">
         <v>1.417322834645669</v>
       </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
         <is>
           <t>2025-02-07</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@tash.smith.ugc/video/7467830112151424274</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>777</v>
-      </c>
-      <c r="C8" t="n">
+      <c r="B9" t="n">
+        <v>778</v>
+      </c>
+      <c r="C9" t="n">
         <v>30</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>3</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
         <v>4</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Supermarket fruit &amp; veg going bad in days? SAME. 🙃🍏 But not anymore! Thanks to @The Village Grocer , I’m getting farm-fresh, crisp, and juicy produce straight to my door—no limp lettuce, no wasted money. 🥑🚛✨</t>
         </is>
       </c>
-      <c r="H8" t="n">
-        <v>4.247104247104247</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3.861003861003861</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.3861003861003861</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.5148005148005148</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="H9" t="n">
+        <v>4.241645244215938</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.856041131105398</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.3856041131105398</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.5141388174807198</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
         <is>
           <t>2025-02-05</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@tash.smith.ugc/video/7465922347673898258</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>811</v>
-      </c>
-      <c r="C9" t="n">
+      <c r="B10" t="n">
+        <v>813</v>
+      </c>
+      <c r="C10" t="n">
         <v>47</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>11</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Okay, I finally jumped on the bone broth trend, and I get the hype! 🥣✨ @nutraorganics Chicken Bone Broth has been my go-to for a warm, nourishing boost—so easy to use and packed with collagen + gut-loving nutrients. 😍 Perfect for sipping or adding to recipes! Who else is obsessed with bone broth? 👇💛</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7.151664611590629</v>
-      </c>
-      <c r="I9" t="n">
-        <v>5.795314426633785</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1.356350184956843</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.2466091245376079</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>2025-01-31</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@tash.smith.ugc/video/7460739755916102920</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>748</v>
-      </c>
-      <c r="C10" t="n">
-        <v>44</v>
-      </c>
-      <c r="D10" t="n">
-        <v>12</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -932,81 +932,131 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
+          <t>Supermarket fruit &amp; veg going bad in days? SAME. 🙃🍏 But not anymore! Thanks to @The Village Grocer , I’m getting farm-fresh, crisp, and juicy produce straight to my door—no limp lettuce, no wasted money. 🥑🚛✨</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7.134071340713407</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5.781057810578106</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.353013530135301</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.2460024600246002</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2025-01-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@tash.smith.ugc/video/7460739755916102920</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>748</v>
+      </c>
+      <c r="C11" t="n">
+        <v>44</v>
+      </c>
+      <c r="D11" t="n">
+        <v>12</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>a stain remover like no other 😍
 @The Dirt Company</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H11" t="n">
         <v>7.48663101604278</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I11" t="n">
         <v>5.88235294117647</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>1.60427807486631</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L11" t="n">
         <v>0.267379679144385</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>2025-01-17</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@tash.smith.ugc/video/7460739479339601159</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B12" t="n">
         <v>474</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C12" t="n">
         <v>24</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" t="n">
         <v>2</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>3</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>what a treat! the yummiest snacks by @Little Bellies
 thank you!
 #gifted #ugccontent #australia #healthysnacks</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H12" t="n">
         <v>5.485232067510549</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>5.063291139240507</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>0.4219409282700421</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L12" t="n">
         <v>0.6329113924050633</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>2025-01-17</t>
         </is>
